--- a/parabolic/2025/07/09/parabolic.xlsx
+++ b/parabolic/2025/07/09/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>719</v>
+        <v>307</v>
       </c>
       <c r="D6" t="n">
-        <v>107500</v>
+        <v>128400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>128400</v>
+        <v>11832400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>286A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>946</v>
       </c>
       <c r="D8" t="n">
-        <v>11832400</v>
+        <v>194500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>286A</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>946</v>
+        <v>332</v>
       </c>
       <c r="D9" t="n">
-        <v>194500</v>
+        <v>879000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>879000</v>
+        <v>14236000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>133</v>
+        <v>574</v>
       </c>
       <c r="D11" t="n">
-        <v>14236000</v>
+        <v>2598600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D12" t="n">
-        <v>2598600</v>
+        <v>15059200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>592</v>
+        <v>740</v>
       </c>
       <c r="D13" t="n">
-        <v>15059200</v>
+        <v>149500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>740</v>
+        <v>958</v>
       </c>
       <c r="D14" t="n">
-        <v>149500</v>
+        <v>103500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>3937</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>958</v>
+        <v>595</v>
       </c>
       <c r="D15" t="n">
-        <v>103500</v>
+        <v>859400</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4552</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D16" t="n">
-        <v>859400</v>
+        <v>7680800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>4552</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>598</v>
+        <v>154</v>
       </c>
       <c r="D17" t="n">
-        <v>7680800</v>
+        <v>2004200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>154</v>
+        <v>531.9000244140625</v>
       </c>
       <c r="D18" t="n">
-        <v>2004200</v>
+        <v>11361200</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>531.9000244140625</v>
+        <v>114</v>
       </c>
       <c r="D19" t="n">
-        <v>11361200</v>
+        <v>236100</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4997</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>837</v>
       </c>
       <c r="D20" t="n">
-        <v>236100</v>
+        <v>242900</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>837</v>
+        <v>324</v>
       </c>
       <c r="D21" t="n">
-        <v>242900</v>
+        <v>936300</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>5017</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>324</v>
+        <v>740.5999755859375</v>
       </c>
       <c r="D22" t="n">
-        <v>936300</v>
+        <v>14577600</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>740.5999755859375</v>
+        <v>721</v>
       </c>
       <c r="D23" t="n">
-        <v>14577600</v>
+        <v>409600</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>6099</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>721</v>
+        <v>814</v>
       </c>
       <c r="D24" t="n">
-        <v>409600</v>
+        <v>136100</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>6099</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>814</v>
+        <v>641</v>
       </c>
       <c r="D25" t="n">
-        <v>136100</v>
+        <v>514900</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="D26" t="n">
-        <v>514900</v>
+        <v>283500</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>6255</t>
+          <t>6343</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>701</v>
+        <v>107</v>
       </c>
       <c r="D27" t="n">
-        <v>283500</v>
+        <v>703900</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>6343</t>
+          <t>6378</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>107</v>
+        <v>927</v>
       </c>
       <c r="D28" t="n">
-        <v>703900</v>
+        <v>194800</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>6378</t>
+          <t>6552</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>927</v>
+        <v>241</v>
       </c>
       <c r="D29" t="n">
-        <v>194800</v>
+        <v>319700</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="D30" t="n">
-        <v>319700</v>
+        <v>821500</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>6769</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>922</v>
       </c>
       <c r="D31" t="n">
-        <v>821500</v>
+        <v>502100</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>6769</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>922</v>
+        <v>615</v>
       </c>
       <c r="D32" t="n">
-        <v>502100</v>
+        <v>421400</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>615</v>
+        <v>848</v>
       </c>
       <c r="D33" t="n">
-        <v>421400</v>
+        <v>7685700</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>848</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>7685700</v>
+        <v>5680600</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>7615</t>
+          <t>7746</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="D35" t="n">
-        <v>5680600</v>
+        <v>1598000</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>7844</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>167</v>
+        <v>525</v>
       </c>
       <c r="D36" t="n">
-        <v>1598000</v>
+        <v>277600</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>7844</t>
+          <t>7992</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>525</v>
+        <v>123</v>
       </c>
       <c r="D37" t="n">
-        <v>277600</v>
+        <v>209200</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>123</v>
+        <v>605</v>
       </c>
       <c r="D38" t="n">
-        <v>209200</v>
+        <v>784300</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8166</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>605</v>
+        <v>109</v>
       </c>
       <c r="D39" t="n">
-        <v>784300</v>
+        <v>388000</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1347,7 +1347,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>8166</t>
+          <t>8346</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="D40" t="n">
-        <v>388000</v>
+        <v>1554600</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1370,7 +1370,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>8368</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>338</v>
+        <v>722</v>
       </c>
       <c r="D41" t="n">
-        <v>1554600</v>
+        <v>650400</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>8368</t>
+          <t>8524</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>722</v>
+        <v>598</v>
       </c>
       <c r="D42" t="n">
-        <v>650400</v>
+        <v>3958100</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1416,7 +1416,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1425,39 +1425,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="D43" t="n">
-        <v>3958100</v>
+        <v>330100</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>9425</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>657</v>
-      </c>
-      <c r="D44" t="n">
-        <v>330100</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/09/parabolic.xlsx
+++ b/parabolic/2025/07/09/parabolic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -178,10 +178,10 @@
     <t xml:space="preserve">7093</t>
   </si>
   <si>
+    <t xml:space="preserve">高値掴み注意</t>
+  </si>
+  <si>
     <t xml:space="preserve">7273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高値掴み注意</t>
   </si>
   <si>
     <t xml:space="preserve">7615</t>
@@ -236,6 +236,7 @@
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -316,16 +317,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,980 +529,983 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>885</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>316400</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>207100</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>186900</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>182400</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>128400</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>11832400</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>946</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>194500</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>879000</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>14236000</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>574</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>2598600</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>592</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>15059200</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>740</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>149500</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>958</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>103500</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>859400</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>598</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>7680800</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>2004200</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>531.900024414063</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>11361200</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>236100</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>837</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>242900</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>936300</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>740.599975585938</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>14577600</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>721</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>409600</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>814</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>136100</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>514900</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>701</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>283500</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>703900</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>927</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>194800</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>319700</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>821500</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>922</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>502100</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>421400</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>5</v>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>7685700</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>848</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>7685700</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>5680600</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>1598000</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>525</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>277600</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>209200</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>784300</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>388000</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>1554600</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>722</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>650400</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>598</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>3958100</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>657</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>330100</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
     </row>
